--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -77,6 +77,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Name</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D10" authorId="0">
       <text>
         <r>
@@ -90,6 +103,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Description</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -103,6 +129,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">RecipeQty</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -142,6 +181,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Quantity</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H10" authorId="0">
       <text>
         <r>
@@ -155,7 +207,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Price</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">Inventory Report Category with Sub-Category</t>
   </si>
@@ -239,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">NANGKA SAYUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Item.BoM:A</t>
   </si>
   <si>
     <t xml:space="preserve">~Item.BoM:F</t>
@@ -251,9 +332,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[RED]\([$Rp-421]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -320,12 +402,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="double"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -361,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,19 +479,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -608,47 +705,75 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="10" t="n">
         <f aca="false">F10/E10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="11" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>100</v>
+      </c>
       <c r="G11" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="s">
+        <f aca="false">F11/E11</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>2</v>
+      <c r="G12" s="12" t="n">
+        <f aca="false">MIN(G10:G11)</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>2</v>
       </c>
     </row>

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="G11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="I11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,12 +394,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -450,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,6 +502,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,7 +547,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -580,50 +594,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -634,16 +649,16 @@
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -651,16 +666,16 @@
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="G7" s="6" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -668,10 +683,10 @@
       <c r="A8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -679,25 +694,25 @@
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -705,26 +720,26 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="F10" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="G10" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <f aca="false">F10/E10</f>
-        <v>2</v>
-      </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="10" t="n">
+        <f aca="false">G10/F10</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="J10" s="11" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -732,26 +747,26 @@
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="F11" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="G11" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <f aca="false">F11/E11</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
+        <f aca="false">G11/F11</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="J11" s="13" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -759,11 +774,11 @@
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <f aca="false">MIN(G10:G11)</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="14" t="n">
+        <f aca="false">MIN(H10:H11)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -779,8 +794,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.445138888888889" right="0.296527777777778" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -369,7 +369,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF168253"/>
+      <color rgb="FF3465A4"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -394,12 +394,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +471,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,11 +511,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +547,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF168253"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -570,11 +576,11 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -597,13 +603,13 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.11"/>
@@ -612,9 +618,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,14 +727,14 @@
         <v>21</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>100</v>
       </c>
       <c r="H10" s="10" t="n">
         <f aca="false">G10/F10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="11" t="n">
         <v>30</v>
@@ -774,9 +774,9 @@
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="14" t="n">
-        <f aca="false">MIN(H10:H11)</f>
-        <v>2</v>
+      <c r="H12" s="14" t="e">
+        <f aca="false">MIN(H10:h[1]Sheet!G8711)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>24</v>

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -388,7 +388,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -596,14 +596,14 @@
   </sheetPr>
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.11"/>
@@ -770,13 +770,13 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="14" t="e">
-        <f aca="false">MIN(H10:h[1]Sheet!G8711)</f>
-        <v>#VALUE!</v>
+      <c r="H12" s="14" t="n">
+        <f aca="false">MIN(H10:H11)</f>
+        <v>2</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>24</v>

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -168,6 +168,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Value</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G10" authorId="0">
       <text>
         <r>
@@ -203,37 +216,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Price</t>
+          <t xml:space="preserve">Value</t>
         </r>
       </text>
     </comment>
     <comment ref="I11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Price</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">Inventory Report Category with Sub-Category</t>
   </si>
@@ -289,6 +276,9 @@
     <t xml:space="preserve">RECIPE</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Item</t>
   </si>
   <si>
@@ -307,7 +297,7 @@
     <t xml:space="preserve">Unit Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost Value</t>
+    <t xml:space="preserve">Cost</t>
   </si>
   <si>
     <t xml:space="preserve">~Item.BoM</t>
@@ -320,6 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve">~Item.BoM:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KECAP MANIS BANGO (6.2 Kg)</t>
   </si>
   <si>
     <t xml:space="preserve">~Item.BoM:F</t>
@@ -335,7 +328,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[RED]\([$Rp-421]#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -456,7 +449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,27 +478,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,6 +527,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,7 +618,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,8 +631,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
@@ -689,97 +710,109 @@
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>12855.5333</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="12" t="n">
         <f aca="false">G10/F10</f>
         <v>5</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>1500</v>
+      <c r="J10" s="13" t="n">
+        <f aca="false">I10*F10</f>
+        <v>600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" s="12" t="n">
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="17" t="n">
         <f aca="false">G11/F11</f>
-        <v>2</v>
-      </c>
-      <c r="I11" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="I11" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="J11" s="13" t="n">
-        <v>1500</v>
+      <c r="J11" s="18" t="n">
+        <f aca="false">I11*F11</f>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" s="19" t="n">
         <f aca="false">MIN(H10:H11)</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <f aca="false">SUM(J10:J11)</f>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/rpt/nested.xlsx
+++ b/rpt/nested.xlsx
@@ -142,7 +142,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Measure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Measure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,12 +264,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Inventory Report Category with Sub-Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-judul, merged-cells</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Inventory Report Category with Recipe</t>
   </si>
   <si>
     <t xml:space="preserve">~Item</t>
@@ -288,6 +311,9 @@
     <t xml:space="preserve">Recipe Qty</t>
   </si>
   <si>
+    <t xml:space="preserve">Uom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Available Qty</t>
   </si>
   <si>
@@ -309,10 +335,16 @@
     <t xml:space="preserve">NANGKA SAYUR</t>
   </si>
   <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
     <t xml:space="preserve">~Item.BoM:A</t>
   </si>
   <si>
     <t xml:space="preserve">KECAP MANIS BANGO (6.2 Kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
   </si>
   <si>
     <t xml:space="preserve">~Item.BoM:F</t>
@@ -615,27 +647,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.08"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,98 +679,101 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="H7" s="6" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="n">
+      <c r="H8" s="6" t="n">
         <v>12855.5333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -756,78 +790,84 @@
       <c r="F10" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="12" t="n">
-        <f aca="false">G10/F10</f>
+      <c r="I10" s="12" t="n">
+        <f aca="false">H10/F10</f>
         <v>5</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="J10" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="J10" s="13" t="n">
-        <f aca="false">I10*F10</f>
+      <c r="K10" s="13" t="n">
+        <f aca="false">J10*F10</f>
         <v>600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="16" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="17" t="n">
-        <f aca="false">G11/F11</f>
+      <c r="I11" s="17" t="n">
+        <f aca="false">H11/F11</f>
         <v>500</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="J11" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="J11" s="18" t="n">
-        <f aca="false">I11*F11</f>
+      <c r="K11" s="18" t="n">
+        <f aca="false">J11*F11</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="19" t="n">
-        <f aca="false">MIN(H10:H11)</f>
+        <v>27</v>
+      </c>
+      <c r="I12" s="19" t="n">
+        <f aca="false">MIN(I10:I11)</f>
         <v>5</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <f aca="false">SUM(J10:J11)</f>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <f aca="false">SUM(K10:K11)</f>
         <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
